--- a/data/regression_name_list1603.xlsx
+++ b/data/regression_name_list1603.xlsx
@@ -538,7 +538,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5844,7 +5844,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5982,7 +5982,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6120,7 +6120,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
